--- a/src/assets/files/12.Puestos.xlsx
+++ b/src/assets/files/12.Puestos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comunidadunammx-my.sharepoint.com/personal/octavioanselmo_comunidad_unam_mx/Documents/PM Soluciones/IMSS/Tortoise/03-EJECUCION/04-SDIP/04-CÉLULA_JCJT/02_DSDIOH/OIAZ/Entregables/22/05_Mayo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brquezada\Documents\projects\frontEnd\gui-mst-adt-web\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98146309-F2A9-40B3-8E7D-4183412AF038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEAE5CF-2122-46AA-89F9-5A9FD9F18FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{EE7EB51B-615D-4F8D-8577-6A967B44F44B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EE7EB51B-615D-4F8D-8577-6A967B44F44B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZA_Puestos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,33 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>DESCRIPCION</t>
   </si>
   <si>
-    <t>Not null</t>
-  </si>
-  <si>
-    <t>Alfabético</t>
-  </si>
-  <si>
     <t>Jefe_trabajo_social</t>
-  </si>
-  <si>
-    <t>Subjefe_trabajo_social</t>
-  </si>
-  <si>
-    <t>Trabajador_social</t>
-  </si>
-  <si>
-    <t>Trabajador_social_clinico</t>
-  </si>
-  <si>
-    <t>Asistente_trabajador_social</t>
-  </si>
-  <si>
-    <t>Auxiliar_de_trabajo_social</t>
   </si>
 </sst>
 </file>
@@ -411,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991F7DAF-9AAB-433C-B9A3-4D4E7E9824F8}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,47 +410,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002047D94B5E73D04A80AA6844A59F543A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="19f8b377e75dbac3c1f2314aec064948">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f6edc329ff236629c56e3b879b320d0">
     <xsd:element name="properties">
@@ -583,15 +538,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -599,13 +545,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0684BB89-CDA3-4F84-BEA0-E54DC2575670}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{246FCEDC-D75A-473F-9DAF-0DB0D26371DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{246FCEDC-D75A-473F-9DAF-0DB0D26371DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0684BB89-CDA3-4F84-BEA0-E54DC2575670}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1598B10-175C-434B-AD14-FA1A2A42A3CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1598B10-175C-434B-AD14-FA1A2A42A3CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>